--- a/data/financial_statements/sofp/JNJ.xlsx
+++ b/data/financial_statements/sofp/JNJ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,2887 +599,2890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
         <v>34079000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>32568000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>30388000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>31608000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>31001000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25306000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24619000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>25185000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>30781000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>19135000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>18024000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>19287000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17945000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>15278000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>15336000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>19687000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>19364000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>18139000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>15204000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>18296000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>16231000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>12853000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>39343000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>41907000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>40433000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>42584000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>39855000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>38376000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>37306000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>33954000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>31319000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>33089000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>33005000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>31624000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>29392000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>29206000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>25228000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>25129000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>21668000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>15890000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>16139000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>15594000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>15283000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>14911000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14871000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>14938000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>13576000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>14579000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>14645000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>14874000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>14481000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14801000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>14653000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14115000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>14098000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>14048000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>14111000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>14166000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>13490000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>13155000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>13283000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>12300000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>11699000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>11798000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>12062000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>11406000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>10734000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>11366000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>11968000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>11533000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>10985000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>11615000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>12257000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>12116000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>11713000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>12027000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>11614000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>11515000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>11675000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>11437000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10990000000</v>
-      </c>
-      <c r="E4">
-        <v>10387000000</v>
       </c>
       <c r="F4">
         <v>10387000000</v>
       </c>
       <c r="G4">
+        <v>10387000000</v>
+      </c>
+      <c r="H4">
         <v>10100000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9952000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9344000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9599000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>9424000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8868000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>9020000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>9173000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>9263000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>9086000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8599000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8678000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>8810000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>9014000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>8765000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>9521000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>9699000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>8878000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8144000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8488000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8523000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>8170000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>8053000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>8206000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>8298000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8085000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>8184000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>8419000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>8155000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>8009000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>7878000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>8124000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>7822000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>7691000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>3592000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3703000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3452000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3701000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3590000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3492000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3024000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3132000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>91000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>100000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>102000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>94000000</v>
-      </c>
-      <c r="N5">
-        <v>194000000</v>
       </c>
       <c r="O5">
         <v>194000000</v>
       </c>
       <c r="P5">
+        <v>194000000</v>
+      </c>
+      <c r="Q5">
         <v>851000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>950000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2208000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1809000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1743000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>65236000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>63847000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>60424000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>60979000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>59889000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>53769000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>52533000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>51237000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>57578000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>45892000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>44226000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>45274000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>44333000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>41799000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>41987000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>46033000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>47194000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>45438000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>42768000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>43088000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>41829000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>38789000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>63347000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>65032000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>63319000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>66291000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>62738000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>60210000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>63494000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>61001000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>58192000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>55744000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>59973000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>60119000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>57369000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>56407000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>52176000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>51273000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>47228000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>18152000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18354000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>18701000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18962000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>18478000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>18632000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>18367000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>18766000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>17855000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>17598000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>17401000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>17658000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17048000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>17248000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>17000000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>17035000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>16629000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>16632000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>17040000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>17005000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>16628000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>16458000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>16191000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>15912000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>16095000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>15972000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>15964000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>15905000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>15551000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>15583000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>15364000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>16126000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>15804000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>16155000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>15996000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>16710000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>16127000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>15794000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>15721000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>522000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1340000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1452000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1884000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1867000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1678000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1452000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1481000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1140000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2200000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1520000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1148000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>73719000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>76574000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>79355000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>81638000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>83345000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>86063000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>86798000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>89795000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>81313000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>81303000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>80809000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>81282000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>81137000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>82993000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>78348000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>78064000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>79339000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>80402000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>83514000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>85134000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>85877000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>86176000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>54310000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>49681000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>50813000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>47798000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>47688000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>47393000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>47267000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>48510000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>48370000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>49054000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>47940000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>49111000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>49821000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>50745000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>51319000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>50041000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>50358000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>9392000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9514000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9936000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10223000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>10646000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10804000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8321000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8534000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7816000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7805000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7539000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7819000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7696000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>7647000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7533000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7640000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>8076000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>8472000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8785000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>7105000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>6303000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>6111000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>6380000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>6148000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5897000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5776000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5678000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5490000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>3150000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3087000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3059000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>6202000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3347000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3380000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3685000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3872000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>4596000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>4740000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>4506000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>8625000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9435000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>9939000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10216000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6870000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7172000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6538000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6562000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6131000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5782000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5042000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5695000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>5307000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5430000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5159000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4182000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4465000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4421000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4518000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4971000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>5021000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5273000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>4690000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4435000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>4245000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3977000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4163000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>4413000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>3804000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>3855000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>3605000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3232000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>5033000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>6435000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>6459000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>4949000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>2715000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2477000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>3723000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>109888000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>113877000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>117931000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>121039000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>119339000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>122671000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>120024000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>123657000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>113115000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>112488000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>110791000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>112454000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>111188000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>113318000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>108040000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>106921000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>108509000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>109927000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>113857000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>114215000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>113829000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>114018000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>81571000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>76176000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>77050000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>73523000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>73493000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>73201000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>69772000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>71035000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>70398000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>74614000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>72124000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>75081000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>75961000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>76276000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>74757000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>73052000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>74308000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>175124000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>177724000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>178355000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>182018000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>179228000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>176440000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>172557000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>174894000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>170693000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>158380000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>155017000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>157728000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>155521000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>155117000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>150027000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>152954000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>155703000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>155365000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>156625000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>157303000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>155658000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>152807000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>144918000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>141208000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>140369000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>139814000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>136231000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>133411000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>133266000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>132036000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>128590000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>130358000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>132097000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>135200000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>133330000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>132683000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>126933000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>124325000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>121536000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>4424000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4305000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>4297000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3766000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3798000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3173000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3350000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2631000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5078000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5332000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2190000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1202000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2299000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1719000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1708000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2796000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1773000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2678000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2696000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3906000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>8491000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>7209000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5355000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>4684000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3443000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1708000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3116000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>7004000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>5677000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>5222000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>4045000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3638000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2115000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3819000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3949000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>4852000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>5359000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>5339000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>4529000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>10153000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>9765000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9309000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>11055000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8961000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8704000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8503000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>9505000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7044000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>6765000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7411000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>8544000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>7491000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6912000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6923000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>7537000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>7000000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>6516000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>6443000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>7310000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>6390000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>6135000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>6082000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>6918000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>5971000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>6061000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>5965000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>6668000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>5928000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>6140000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>6719000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>7633000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>6603000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>6193000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>6113000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>6266000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>6055000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>5687000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>5372000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>28980000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>28771000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>28076000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>29293000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>29641000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>25644000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>27202000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>28965000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>25059000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>23043000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>22158000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>23952000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>22867000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>21021000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>19455000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>20079000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>17568000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>17366000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>16383000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>17467000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>15742000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>14769000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>12549000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>13714000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>13018000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>13077000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>12085000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>13325000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>12724000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>12234000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>11829000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>13314000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>12729000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>13292000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>12916000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>13787000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>12710000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>11785000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>11445000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>4424000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>4305000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>4297000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3766000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3798000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3173000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3350000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2631000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5078000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5332000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2190000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1471000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>1986000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1980000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1708000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1112000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2161000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1200000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1877000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1392000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1666000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1632000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1930000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2266000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2505000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1701000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1025000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>818000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1096000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>928000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1559000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1854000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1183000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>759000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1133000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>971000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>798000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>690000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>968000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>750000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>931000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>916000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1243000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>446000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1535000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1055000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>862000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>770000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1711000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>956000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1178000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>28980000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>28771000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>28076000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>29293000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>29641000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>25644000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>27202000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>28965000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>25059000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>23043000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>22158000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>23683000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>45543000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>44821000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>43390000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>45226000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>44561000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>38721000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>40932000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>42493000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>38847000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>36772000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>33689000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>35964000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>35162000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>31353000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>29111000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>31230000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>27437000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>27488000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>27081000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>30537000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>31806000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>28872000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>25119000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>26287000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>23230000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>21536000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>22134000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>27747000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>25260000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>24512000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>23836000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>25031000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>22982000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>24359000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>23840000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>25675000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>25835000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>23767000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>22524000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>27603000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>28292000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>28851000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>29985000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>30130000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>30310000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>30263000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>32635000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>32680000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>25062000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>25393000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>26494000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>26919000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>27699000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>27660000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>27684000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>29480000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>29405000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>29837000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>30675000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>26675000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>27363000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>27015000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>22442000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>23546000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>24535000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>20233000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>12857000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>14073000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>14085000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>14938000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>15122000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>13152000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>13303000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>13343000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>13328000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>9748000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>9643000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>11363000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>8353000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8553000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>8739000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>8898000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>10171000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>10367000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10512000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10771000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>10184000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>10411000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>10529000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10663000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>9830000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>9910000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>9905000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>9951000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>9374000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>9989000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>10066000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>10074000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>9686000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>9687000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>9609000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>9615000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>8217000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>8359000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>8591000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>8854000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>9515000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>9633000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>9750000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>9972000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>7551000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>7626000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>7700000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>7784000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>9038000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>8996000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>8978000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>4946000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5015000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>6424000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7487000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>7147000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9016000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>6507000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7214000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5615000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5532000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5766000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5958000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>6526000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>7725000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>7394000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7506000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>7711000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>7666000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8057000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>8368000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>4410000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>4846000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>3308000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2910000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3193000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2849000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2877000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2562000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>3561000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>3702000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>3584000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2447000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>4063000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>4491000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4594000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>3989000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>3613000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>3685000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3619000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>14080000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>14686000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>16242000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>16399000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>16947000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>18446000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>18509000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>18503000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>18894000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>17625000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>18346000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>19178000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>18874000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>17645000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>17002000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>16831000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>17075000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>17928000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>18329000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>17489000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>9102000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10117000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>9526000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>9536000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>9414000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10062000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>9749000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>10241000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>9303000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>8973000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>8604000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>8034000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>7758000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>7373000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>7271000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>7854000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>8895000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>8569000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>8197000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>54982000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>56546000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>60256000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>62769000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>64395000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>68139000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>65791000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>69123000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>67373000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>58630000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>60034000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>62293000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>62149000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>62979000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>61961000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>61972000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>63640000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>64988000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>66289000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>66606000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>49873000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>52013000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>49458000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>44503000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>44370000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>45805000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>41450000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>34514000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>36452000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>36393000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>36876000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>35575000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>32524000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>32793000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>32908000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>32955000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>31294000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>30893000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>32157000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>100525000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>101367000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>103646000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>107995000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>108956000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>106860000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>106723000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>111616000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>106220000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>95402000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>93723000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>98257000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>97311000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>94332000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>91072000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>93202000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>91077000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>92476000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>93370000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>97143000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>81679000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>80885000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>74577000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>70790000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>67600000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>67341000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>63584000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>62261000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>61712000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>60905000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>60712000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>60606000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>55506000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>57152000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>56748000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>58630000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>57129000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>54660000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>54681000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>3120000000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>3120000000</v>
@@ -3481,1096 +3598,1099 @@
       <c r="AN27">
         <v>3120000000</v>
       </c>
+      <c r="AO27">
+        <v>3120000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>127917000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>126216000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>124380000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>123060000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>121092000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>120154000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>116508000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>113890000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>114831000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>113898000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>112901000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>110659000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>109242000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>109809000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>106650000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>106216000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>107617000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>106123000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>104339000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>101793000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>114805000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>113208000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>111643000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>110551000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>108860000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>106738000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>104990000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>103879000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>102748000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>101352000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>98656000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>97245000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>96560000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>93745000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>91387000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>89493000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>87703000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>89449000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>87242000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>41146000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>39136000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>39034000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>39099000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>38525000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>38594000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>38466000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>38490000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>38540000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>38507000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>38484000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>38417000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>38619000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>37175000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>35298000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>34362000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>31464000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>31577000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>31596000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>31554000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>31199000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>31172000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>29900000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>98770000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>26496000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>24678000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>23072000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>93834000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>21453000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>21287000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>20598000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>19891000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>17707000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>15810000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>15280000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>15700000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>15673000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>16094000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>16818000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>74599000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>76357000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>74709000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>74023000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>70272000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>69580000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>65834000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>63278000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>64473000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>62978000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>61294000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>59471000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>58210000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>60785000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>58955000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>59752000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>64626000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>62889000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>63255000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>60160000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>73979000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>71922000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>70341000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>72769000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>72473000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>72647000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>71554000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>71131000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>67878000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>69752000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>76591000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>78048000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>76582000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>74053000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>69804000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>69665000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>66855000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>74599000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>76357000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>74709000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>74023000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>70272000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>69580000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>65834000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>63278000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>64473000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>62978000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>61294000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>59471000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>58210000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>60785000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>58955000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>59752000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>64626000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>62889000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>63255000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>60160000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>73979000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>71922000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>70341000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>70418000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>72769000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>72473000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>72647000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>71150000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>71554000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>71131000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>67878000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>69752000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>76591000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>78048000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>76582000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>74053000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>69804000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>69665000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>66855000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>175124000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>177724000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>178355000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>182018000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>179228000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>176440000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>172557000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>174894000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>170693000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>158380000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>155017000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>157728000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>155521000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>155117000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>150027000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>152954000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>155703000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>155365000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>156625000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>157303000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>155658000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>152807000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>144918000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>141208000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>140369000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>139814000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>136231000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>133411000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>133266000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>132036000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>128590000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>130358000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>132097000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>135200000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>133330000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>132683000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>126933000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>124325000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>121536000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>2616882000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2629032000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2629384000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2628965000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2632485000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2631989000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2632702000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>2632512000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2632167000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2632377000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2632392000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2632507000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>2630961000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2642065000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2655636000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2662324000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2683155000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2682301000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2682189000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>2682525000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>2684982000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2685190000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2694909000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>2706511000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>2722584000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>2737654000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>2751705000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>2755162000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>2767281000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>2768975000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>2775874000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>2783223000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>2804056000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>2822579000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>2827641000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>2820628000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>2820659000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>2814188000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>2803164000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>880000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-217000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-4646000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-7615000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-13073000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-16483000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-20964000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-26517000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-16840000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-18325000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-19515000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-21811000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-22927000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-22208000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-19393000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-18312000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-14713000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-17513000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-20259000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-24974000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-11898000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-14254000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>16031000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>20737000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>21956000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>24675000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>24959000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>23757000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>24287000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>22621000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>19508000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>20698000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>28651000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>28937000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>26761000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>23308000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>18485000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>19624000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>16497000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>-2052000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>29000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>2760000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2143000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2927000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>8177000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>8994000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>10081000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>6977000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>11259000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>9559000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>8678000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>8974000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>12421000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>12324000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>7997000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>10116000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>11266000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>14633000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>12379000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>10444000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>14510000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>-12328000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-19465000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>-16887000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>-18049000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>-19622000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-25519000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>-23233000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-19869000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-16381000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-17967000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>-19853000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>-18321000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>-16049000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>-15878000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>-15480000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>-15486000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>-10305000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>32027000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>32597000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>33148000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>33751000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>33928000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>33483000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>33613000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>35266000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>37758000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>30394000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>27583000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>27965000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>26919000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>27699000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>27660000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>27684000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>29480000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>29405000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>29837000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>30675000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>26675000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>27363000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>27015000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>22442000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>23546000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>24535000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>20233000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>12857000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>14073000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>14085000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>14938000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>15122000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>13152000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>13303000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>13343000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>13328000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>9748000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>9643000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>11363000000</v>
       </c>
     </row>
